--- a/target/classes/DisSheet.xlsx
+++ b/target/classes/DisSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Test ID</t>
   </si>
@@ -42,23 +42,162 @@
     <t>Log In</t>
   </si>
   <si>
-    <t>nichharp</t>
-  </si>
-  <si>
-    <t>adamsux</t>
+    <t>move 12</t>
+  </si>
+  <si>
+    <t>move 11</t>
+  </si>
+  <si>
+    <t>move 10</t>
+  </si>
+  <si>
+    <t>move 9</t>
+  </si>
+  <si>
+    <t>move 8</t>
+  </si>
+  <si>
+    <t>move 7</t>
+  </si>
+  <si>
+    <t>move 6</t>
+  </si>
+  <si>
+    <t>move 5</t>
+  </si>
+  <si>
+    <t>move 4</t>
+  </si>
+  <si>
+    <t>move 3</t>
+  </si>
+  <si>
+    <t>move 2</t>
+  </si>
+  <si>
+    <t>mouse to 1</t>
+  </si>
+  <si>
+    <t>select 1-3</t>
+  </si>
+  <si>
+    <t>slider to 9</t>
+  </si>
+  <si>
+    <t>X Path</t>
+  </si>
+  <si>
+    <t>//*[@id='sortable_grid']/li[12]</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>selectable-serialize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]/li[1]</t>
+    </r>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <r>
+      <t>//*[@id=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>slider-range-max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>]/span</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,8 +220,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,18 +527,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,127 +552,303 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>-168</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-320</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>-176</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-227</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-167</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-134</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-212</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-94</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-331</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-224</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-90</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-131</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-330</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-242</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-141</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>398</v>
+      </c>
+      <c r="D13" s="1">
+        <v>648</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>523</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -536,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
